--- a/trunk/Measurement Analysis/K15T2-Team22-Team Assignment8/K15T2-Team22-Team Assignment8.xlsx
+++ b/trunk/Measurement Analysis/K15T2-Team22-Team Assignment8/K15T2-Team22-Team Assignment8.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="EVM Report" sheetId="44" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Release 2 - Deliver Online Product</t>
   </si>
@@ -78,6 +75,9 @@
   <si>
     <t>ETC</t>
   </si>
+  <si>
+    <t>Plotting  CPI and SPI Trend</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +143,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -169,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,20 +210,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,16 +246,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -263,6 +277,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -866,11 +900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142352384"/>
-        <c:axId val="142353920"/>
+        <c:axId val="73532544"/>
+        <c:axId val="73547776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142352384"/>
+        <c:axId val="73532544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142353920"/>
+        <c:crossAx val="73547776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -897,7 +931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142353920"/>
+        <c:axId val="73547776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142352384"/>
+        <c:crossAx val="73532544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,11 +1214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142216576"/>
-        <c:axId val="142242944"/>
+        <c:axId val="76453760"/>
+        <c:axId val="76455296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142216576"/>
+        <c:axId val="76453760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -1198,14 +1232,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142242944"/>
+        <c:crossAx val="76455296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
         <c:minorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142242944"/>
+        <c:axId val="76455296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
@@ -1219,7 +1253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142216576"/>
+        <c:crossAx val="76453760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -2675,7 +2709,7 @@
               <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>         Under Buget</a:t>
+            <a:t>         Under Budget</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2764,7 +2798,7 @@
               <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> Buget</a:t>
+            <a:t> Budget</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2400">
             <a:latin typeface="Tahoma" pitchFamily="34" charset="0"/>
@@ -2920,7 +2954,7 @@
               <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Buget</a:t>
+            <a:t>Budget</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:latin typeface="Tahoma" pitchFamily="34" charset="0"/>
@@ -3102,7 +3136,7 @@
               <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Buget</a:t>
+            <a:t>Budget</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:latin typeface="Tahoma" pitchFamily="34" charset="0"/>
@@ -5360,617 +5394,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Bull's Eye "/>
-      <sheetName val="PM EV"/>
-      <sheetName val="Release 1 EV"/>
-      <sheetName val="Release 2 EV"/>
-      <sheetName val="Release 3 EV"/>
-      <sheetName val="Release 4 EV"/>
-      <sheetName val="Summary EV"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>BCWS</v>
-          </cell>
-          <cell r="B24">
-            <v>364</v>
-          </cell>
-          <cell r="C24">
-            <v>596</v>
-          </cell>
-          <cell r="D24">
-            <v>931.1</v>
-          </cell>
-          <cell r="E24">
-            <v>1248</v>
-          </cell>
-          <cell r="F24">
-            <v>1564.0000400000001</v>
-          </cell>
-          <cell r="G24">
-            <v>1816.00008</v>
-          </cell>
-          <cell r="H24">
-            <v>2036.0001000000002</v>
-          </cell>
-          <cell r="I24">
-            <v>2256.0001699999998</v>
-          </cell>
-          <cell r="J24">
-            <v>2450.6668600000003</v>
-          </cell>
-          <cell r="K24">
-            <v>2812.0001899999997</v>
-          </cell>
-          <cell r="L24">
-            <v>3162.4718499999999</v>
-          </cell>
-          <cell r="M24">
-            <v>3473.08185</v>
-          </cell>
-          <cell r="N24">
-            <v>3634.8051799999998</v>
-          </cell>
-          <cell r="O24">
-            <v>3953.6352000000002</v>
-          </cell>
-          <cell r="P24">
-            <v>4176.3585299999995</v>
-          </cell>
-          <cell r="Q24">
-            <v>4356.3585299999995</v>
-          </cell>
-          <cell r="R24">
-            <v>4536.3585299999995</v>
-          </cell>
-          <cell r="S24">
-            <v>4796.3585199999998</v>
-          </cell>
-          <cell r="T24">
-            <v>5096.3585199999998</v>
-          </cell>
-          <cell r="U24">
-            <v>5396.3585199999998</v>
-          </cell>
-          <cell r="V24">
-            <v>5648.3585200000007</v>
-          </cell>
-          <cell r="W24">
-            <v>6017.6918599999999</v>
-          </cell>
-          <cell r="X24">
-            <v>6307.0251900000003</v>
-          </cell>
-          <cell r="Y24">
-            <v>6492.3585199999998</v>
-          </cell>
-          <cell r="Z24">
-            <v>6667.2701900000002</v>
-          </cell>
-          <cell r="AA24">
-            <v>6851.9501899999996</v>
-          </cell>
-          <cell r="AB24">
-            <v>6983.2701900000002</v>
-          </cell>
-          <cell r="AC24">
-            <v>7443.2701900000002</v>
-          </cell>
-          <cell r="AD24">
-            <v>7881.6101899999994</v>
-          </cell>
-          <cell r="AE24">
-            <v>8081.6101899999994</v>
-          </cell>
-          <cell r="AF24">
-            <v>8368.1951900000004</v>
-          </cell>
-          <cell r="AG24">
-            <v>8828.1951900000004</v>
-          </cell>
-          <cell r="AH24">
-            <v>9024.1951900000004</v>
-          </cell>
-          <cell r="AI24">
-            <v>9044.1951900000004</v>
-          </cell>
-          <cell r="AJ24">
-            <v>9064.1951900000004</v>
-          </cell>
-          <cell r="AK24">
-            <v>10348.19519</v>
-          </cell>
-          <cell r="AL24">
-            <v>10416.19519</v>
-          </cell>
-          <cell r="AM24">
-            <v>10572.19519</v>
-          </cell>
-          <cell r="AN24">
-            <v>10792.19519</v>
-          </cell>
-          <cell r="AO24">
-            <v>11012.19519</v>
-          </cell>
-          <cell r="AP24">
-            <v>11232.19519</v>
-          </cell>
-          <cell r="AQ24">
-            <v>11452.19519</v>
-          </cell>
-          <cell r="AR24">
-            <v>11672.19519</v>
-          </cell>
-          <cell r="AS24">
-            <v>11892.19519</v>
-          </cell>
-          <cell r="AT24">
-            <v>12120.19519</v>
-          </cell>
-          <cell r="AU24">
-            <v>12148.19519</v>
-          </cell>
-          <cell r="AV24">
-            <v>12148.19519</v>
-          </cell>
-          <cell r="AW24">
-            <v>12148.19519</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>BCWP</v>
-          </cell>
-          <cell r="B25">
-            <v>311.98</v>
-          </cell>
-          <cell r="C25">
-            <v>596</v>
-          </cell>
-          <cell r="D25">
-            <v>775.55332999999996</v>
-          </cell>
-          <cell r="E25">
-            <v>1001.77667</v>
-          </cell>
-          <cell r="F25">
-            <v>1249.3333299999999</v>
-          </cell>
-          <cell r="G25">
-            <v>1489.6133299999999</v>
-          </cell>
-          <cell r="H25">
-            <v>1650.0949899999998</v>
-          </cell>
-          <cell r="I25">
-            <v>2214.4135199999996</v>
-          </cell>
-          <cell r="J25">
-            <v>2336.0718499999998</v>
-          </cell>
-          <cell r="K25">
-            <v>2484.9168599999998</v>
-          </cell>
-          <cell r="L25">
-            <v>2713.02853</v>
-          </cell>
-          <cell r="M25">
-            <v>2952.4185300000004</v>
-          </cell>
-          <cell r="N25">
-            <v>3108.0852</v>
-          </cell>
-          <cell r="O25">
-            <v>3455.34186</v>
-          </cell>
-          <cell r="P25">
-            <v>3727.5918700000002</v>
-          </cell>
-          <cell r="Q25">
-            <v>3945.7852000000003</v>
-          </cell>
-          <cell r="R25">
-            <v>4125.7485299999998</v>
-          </cell>
-          <cell r="S25">
-            <v>4305.7485299999998</v>
-          </cell>
-          <cell r="T25">
-            <v>4487.6851999999999</v>
-          </cell>
-          <cell r="U25">
-            <v>4661.7152000000006</v>
-          </cell>
-          <cell r="V25">
-            <v>4971.1485299999995</v>
-          </cell>
-          <cell r="W25">
-            <v>5263.9085299999997</v>
-          </cell>
-          <cell r="X25">
-            <v>5541.6318599999995</v>
-          </cell>
-          <cell r="Y25">
-            <v>5877.9251899999999</v>
-          </cell>
-          <cell r="Z25">
-            <v>6259.2418600000001</v>
-          </cell>
-          <cell r="AA25">
-            <v>6479.2418600000001</v>
-          </cell>
-          <cell r="AB25">
-            <v>6693.5501899999999</v>
-          </cell>
-          <cell r="AC25">
-            <v>6840.6201899999996</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>ACWP</v>
-          </cell>
-          <cell r="B26">
-            <v>364</v>
-          </cell>
-          <cell r="C26">
-            <v>564</v>
-          </cell>
-          <cell r="D26">
-            <v>740</v>
-          </cell>
-          <cell r="E26">
-            <v>964</v>
-          </cell>
-          <cell r="F26">
-            <v>1204</v>
-          </cell>
-          <cell r="G26">
-            <v>1448</v>
-          </cell>
-          <cell r="H26">
-            <v>1564</v>
-          </cell>
-          <cell r="I26">
-            <v>1804</v>
-          </cell>
-          <cell r="J26">
-            <v>1952</v>
-          </cell>
-          <cell r="K26">
-            <v>2128</v>
-          </cell>
-          <cell r="L26">
-            <v>2376</v>
-          </cell>
-          <cell r="M26">
-            <v>2628</v>
-          </cell>
-          <cell r="N26">
-            <v>2768</v>
-          </cell>
-          <cell r="O26">
-            <v>3114</v>
-          </cell>
-          <cell r="P26">
-            <v>3390</v>
-          </cell>
-          <cell r="Q26">
-            <v>3606</v>
-          </cell>
-          <cell r="R26">
-            <v>3786</v>
-          </cell>
-          <cell r="S26">
-            <v>3966</v>
-          </cell>
-          <cell r="T26">
-            <v>4142</v>
-          </cell>
-          <cell r="U26">
-            <v>4322</v>
-          </cell>
-          <cell r="V26">
-            <v>4624</v>
-          </cell>
-          <cell r="W26">
-            <v>4922</v>
-          </cell>
-          <cell r="X26">
-            <v>5198</v>
-          </cell>
-          <cell r="Y26">
-            <v>5542</v>
-          </cell>
-          <cell r="Z26">
-            <v>5915</v>
-          </cell>
-          <cell r="AA26">
-            <v>6128</v>
-          </cell>
-          <cell r="AB26">
-            <v>6304</v>
-          </cell>
-          <cell r="AC26">
-            <v>6420</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>EAC</v>
-          </cell>
-          <cell r="AC27">
-            <v>6420</v>
-          </cell>
-          <cell r="AD27">
-            <v>7396.9821129085685</v>
-          </cell>
-          <cell r="AE27">
-            <v>7584.6844208022949</v>
-          </cell>
-          <cell r="AF27">
-            <v>7853.6477503409142</v>
-          </cell>
-          <cell r="AG27">
-            <v>8285.3630584964849</v>
-          </cell>
-          <cell r="AH27">
-            <v>8469.3113202323384</v>
-          </cell>
-          <cell r="AI27">
-            <v>8488.0815510217108</v>
-          </cell>
-          <cell r="AJ27">
-            <v>8506.8517818110831</v>
-          </cell>
-          <cell r="AK27">
-            <v>9711.9005984888081</v>
-          </cell>
-          <cell r="AL27">
-            <v>9775.7193831726763</v>
-          </cell>
-          <cell r="AM27">
-            <v>9922.1271833297833</v>
-          </cell>
-          <cell r="AN27">
-            <v>10128.599722012881</v>
-          </cell>
-          <cell r="AO27">
-            <v>10335.072260695981</v>
-          </cell>
-          <cell r="AP27">
-            <v>10541.54479937908</v>
-          </cell>
-          <cell r="AQ27">
-            <v>10748.01733806218</v>
-          </cell>
-          <cell r="AR27">
-            <v>10954.48987674528</v>
-          </cell>
-          <cell r="AS27">
-            <v>11160.962415428379</v>
-          </cell>
-          <cell r="AT27">
-            <v>11374.943046427226</v>
-          </cell>
-          <cell r="AU27">
-            <v>11401.221369532348</v>
-          </cell>
-          <cell r="AV27">
-            <v>11401.221369532348</v>
-          </cell>
-          <cell r="AW27">
-            <v>11401.221369532348</v>
-          </cell>
-          <cell r="AX27">
-            <v>11638.749255056464</v>
-          </cell>
-          <cell r="AY27">
-            <v>11876.27714058058</v>
-          </cell>
-          <cell r="AZ27">
-            <v>12113.805026104696</v>
-          </cell>
-          <cell r="BA27">
-            <v>12351.332911628811</v>
-          </cell>
-          <cell r="BB27">
-            <v>12405.710270225623</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>0.85708791208791213</v>
-          </cell>
-          <cell r="C89">
-            <v>1</v>
-          </cell>
-          <cell r="D89">
-            <v>0.83294311029964552</v>
-          </cell>
-          <cell r="E89">
-            <v>0.80270566506410257</v>
-          </cell>
-          <cell r="F89">
-            <v>0.79880645655226445</v>
-          </cell>
-          <cell r="G89">
-            <v>0.82027162135367304</v>
-          </cell>
-          <cell r="H89">
-            <v>0.8104591890737135</v>
-          </cell>
-          <cell r="I89">
-            <v>0.98156620263020633</v>
-          </cell>
-          <cell r="J89">
-            <v>0.95323925423302924</v>
-          </cell>
-          <cell r="K89">
-            <v>0.8836830341750439</v>
-          </cell>
-          <cell r="L89">
-            <v>0.85788227016155105</v>
-          </cell>
-          <cell r="M89">
-            <v>0.85008607844931738</v>
-          </cell>
-          <cell r="N89">
-            <v>0.85508990058168677</v>
-          </cell>
-          <cell r="O89">
-            <v>0.87396577711570356</v>
-          </cell>
-          <cell r="P89">
-            <v>0.8925459448042169</v>
-          </cell>
-          <cell r="Q89">
-            <v>0.90575309006993066</v>
-          </cell>
-          <cell r="R89">
-            <v>0.9094846676503765</v>
-          </cell>
-          <cell r="S89">
-            <v>0.89771198546684117</v>
-          </cell>
-          <cell r="T89">
-            <v>0.88056701317002328</v>
-          </cell>
-          <cell r="U89">
-            <v>0.86386313709934914</v>
-          </cell>
-          <cell r="V89">
-            <v>0.88010499198977876</v>
-          </cell>
-          <cell r="W89">
-            <v>0.87473879561523438</v>
-          </cell>
-          <cell r="X89">
-            <v>0.87864432011250604</v>
-          </cell>
-          <cell r="Y89">
-            <v>0.90536053606602118</v>
-          </cell>
-          <cell r="Z89">
-            <v>0.93880129072735241</v>
-          </cell>
-          <cell r="AA89">
-            <v>0.94560551088886424</v>
-          </cell>
-          <cell r="AB89">
-            <v>0.95851227403246153</v>
-          </cell>
-          <cell r="AC89">
-            <v>0.91903424373742904</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>Week</v>
-          </cell>
-          <cell r="B90">
-            <v>0.85708791208791213</v>
-          </cell>
-          <cell r="C90">
-            <v>1.0567375886524824</v>
-          </cell>
-          <cell r="D90">
-            <v>1.0480450405405406</v>
-          </cell>
-          <cell r="E90">
-            <v>1.039187417012448</v>
-          </cell>
-          <cell r="F90">
-            <v>1.0376522674418605</v>
-          </cell>
-          <cell r="G90">
-            <v>1.0287384875690606</v>
-          </cell>
-          <cell r="H90">
-            <v>1.0550479475703323</v>
-          </cell>
-          <cell r="I90">
-            <v>1.227501951219512</v>
-          </cell>
-          <cell r="J90">
-            <v>1.1967581198770492</v>
-          </cell>
-          <cell r="K90">
-            <v>1.1677240883458646</v>
-          </cell>
-          <cell r="L90">
-            <v>1.1418470244107743</v>
-          </cell>
-          <cell r="M90">
-            <v>1.1234469292237443</v>
-          </cell>
-          <cell r="N90">
-            <v>1.1228631502890174</v>
-          </cell>
-          <cell r="O90">
-            <v>1.1096152408477842</v>
-          </cell>
-          <cell r="P90">
-            <v>1.0995846224188792</v>
-          </cell>
-          <cell r="Q90">
-            <v>1.0942277315585136</v>
-          </cell>
-          <cell r="R90">
-            <v>1.089738122028526</v>
-          </cell>
-          <cell r="S90">
-            <v>1.0856652874432677</v>
-          </cell>
-          <cell r="T90">
-            <v>1.0834585224529212</v>
-          </cell>
-          <cell r="U90">
-            <v>1.0786013882461825</v>
-          </cell>
-          <cell r="V90">
-            <v>1.0750753741349479</v>
-          </cell>
-          <cell r="W90">
-            <v>1.069465365704998</v>
-          </cell>
-          <cell r="X90">
-            <v>1.0661084763370525</v>
-          </cell>
-          <cell r="Y90">
-            <v>1.0606144334175387</v>
-          </cell>
-          <cell r="Z90">
-            <v>1.0581981166525782</v>
-          </cell>
-          <cell r="AA90">
-            <v>1.0573175359007834</v>
-          </cell>
-          <cell r="AB90">
-            <v>1.0617941291243655</v>
-          </cell>
-          <cell r="AC90">
-            <v>1.0655171635514018</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6260,445 +5683,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC76"/>
+  <dimension ref="A1:BC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="51" max="54" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="17">
         <v>1</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="17">
         <v>2</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="17">
         <v>3</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="17">
         <v>4</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="17">
         <v>5</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="17">
         <v>6</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="17">
         <v>7</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="17">
         <v>8</v>
       </c>
-      <c r="J1" s="21">
+      <c r="J1" s="17">
         <v>9</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="17">
         <v>10</v>
       </c>
-      <c r="L1" s="21">
+      <c r="L1" s="17">
         <v>11</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="17">
         <v>12</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="17">
         <v>13</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="17">
         <v>14</v>
       </c>
-      <c r="P1" s="21">
+      <c r="P1" s="17">
         <v>15</v>
       </c>
-      <c r="Q1" s="21">
+      <c r="Q1" s="17">
         <v>16</v>
       </c>
-      <c r="R1" s="21">
+      <c r="R1" s="17">
         <v>17</v>
       </c>
-      <c r="S1" s="21">
+      <c r="S1" s="17">
         <v>18</v>
       </c>
-      <c r="T1" s="21">
+      <c r="T1" s="17">
         <v>19</v>
       </c>
-      <c r="U1" s="21">
+      <c r="U1" s="17">
         <v>20</v>
       </c>
-      <c r="V1" s="21">
+      <c r="V1" s="17">
         <v>21</v>
       </c>
-      <c r="W1" s="21">
+      <c r="W1" s="17">
         <v>22</v>
       </c>
-      <c r="X1" s="21">
+      <c r="X1" s="17">
         <v>23</v>
       </c>
-      <c r="Y1" s="21">
+      <c r="Y1" s="17">
         <v>24</v>
       </c>
-      <c r="Z1" s="21">
+      <c r="Z1" s="17">
         <v>25</v>
       </c>
-      <c r="AA1" s="21">
+      <c r="AA1" s="17">
         <v>26</v>
       </c>
-      <c r="AB1" s="21">
+      <c r="AB1" s="17">
         <v>27</v>
       </c>
-      <c r="AC1" s="21">
+      <c r="AC1" s="17">
         <v>28</v>
       </c>
-      <c r="AD1" s="21">
+      <c r="AD1" s="17">
         <v>29</v>
       </c>
-      <c r="AE1" s="21">
+      <c r="AE1" s="17">
         <v>30</v>
       </c>
-      <c r="AF1" s="21">
+      <c r="AF1" s="17">
         <v>31</v>
       </c>
-      <c r="AG1" s="21">
+      <c r="AG1" s="17">
         <v>32</v>
       </c>
-      <c r="AH1" s="21">
+      <c r="AH1" s="17">
         <v>33</v>
       </c>
-      <c r="AI1" s="21">
+      <c r="AI1" s="17">
         <v>34</v>
       </c>
-      <c r="AJ1" s="21">
+      <c r="AJ1" s="17">
         <v>35</v>
       </c>
-      <c r="AK1" s="21">
+      <c r="AK1" s="17">
         <v>36</v>
       </c>
-      <c r="AL1" s="21">
+      <c r="AL1" s="17">
         <v>37</v>
       </c>
-      <c r="AM1" s="21">
+      <c r="AM1" s="17">
         <v>38</v>
       </c>
-      <c r="AN1" s="21">
+      <c r="AN1" s="17">
         <v>39</v>
       </c>
-      <c r="AO1" s="21">
+      <c r="AO1" s="17">
         <v>40</v>
       </c>
-      <c r="AP1" s="21">
+      <c r="AP1" s="17">
         <v>41</v>
       </c>
-      <c r="AQ1" s="21">
+      <c r="AQ1" s="17">
         <v>42</v>
       </c>
-      <c r="AR1" s="21">
+      <c r="AR1" s="17">
         <v>43</v>
       </c>
-      <c r="AS1" s="21">
+      <c r="AS1" s="17">
         <v>44</v>
       </c>
-      <c r="AT1" s="21">
+      <c r="AT1" s="17">
         <v>45</v>
       </c>
-      <c r="AU1" s="21">
+      <c r="AU1" s="17">
         <v>46</v>
       </c>
-      <c r="AV1" s="21">
+      <c r="AV1" s="17">
         <v>47</v>
       </c>
-      <c r="AW1" s="21">
+      <c r="AW1" s="17">
         <v>48</v>
       </c>
-      <c r="AX1" s="21">
+      <c r="AX1" s="17">
         <v>49</v>
       </c>
-      <c r="AY1" s="21">
+      <c r="AY1" s="17">
         <v>50</v>
       </c>
-      <c r="AZ1" s="21">
+      <c r="AZ1" s="17">
         <v>51</v>
       </c>
-      <c r="BA1" s="21">
+      <c r="BA1" s="17">
         <v>52</v>
       </c>
-      <c r="BB1" s="21">
+      <c r="BB1" s="17">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
+    <row r="2" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
     </row>
-    <row r="3" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="28">
         <v>364</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="28">
         <v>596</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="28">
         <v>620</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="28">
         <v>640</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="28">
         <v>660</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="28">
         <v>680</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="28">
         <v>700</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="28">
         <v>720</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="28">
         <v>740</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="28">
         <v>760</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="28">
         <v>780</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="28">
         <v>800</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="28">
         <v>820</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="28">
         <v>840</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="28">
         <v>860</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="28">
         <v>880</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="28">
         <v>900</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="28">
         <v>920</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="28">
         <v>940</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="28">
         <v>960</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="28">
         <v>980</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="28">
         <v>1000</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="28">
         <v>1020</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="28">
         <v>1040</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="28">
         <v>1060</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="28">
         <v>1080</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="28">
         <v>1100</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="28">
         <v>1120</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="28">
         <v>1140</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="28">
         <v>1160</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="28">
         <v>1180</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="28">
         <v>1200</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="28">
         <v>1220</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="28">
         <v>1240</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="28">
         <v>1260</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="28">
         <v>1280</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="28">
         <v>1300</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="28">
         <v>1320</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="28">
         <v>1340</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="28">
         <v>1360</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="28">
         <v>1380</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="28">
         <v>1400</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="28">
         <v>1420</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="28">
         <v>1440</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="28">
         <v>1460</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="28">
         <v>1480</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="28">
         <v>1480</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="28">
         <v>1480</v>
       </c>
       <c r="AX4" s="1"/>
@@ -6708,113 +6137,113 @@
       <c r="BB4" s="1"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="28">
         <v>311.98</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="28">
         <v>596</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="28">
         <v>620</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="28">
         <v>640</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="28">
         <v>660</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="28">
         <v>680</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="28">
         <v>700</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="28">
         <v>720</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="28">
         <v>740</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="28">
         <v>760</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="28">
         <v>780</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="28">
         <v>800</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="28">
         <v>820</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="28">
         <v>840</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="28">
         <v>860</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="28">
         <v>880</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="28">
         <v>900</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="28">
         <v>920</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="28">
         <v>940</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="28">
         <v>960</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="28">
         <v>980</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="28">
         <v>1000</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="28">
         <v>1020</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="28">
         <v>1040</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="28">
         <v>1060</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="28">
         <v>1080</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="28">
         <v>1100</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="28">
         <v>1120</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
@@ -6822,375 +6251,375 @@
       <c r="BB5" s="1"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="28">
         <v>364</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="28">
         <v>564</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="28">
         <v>588</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="28">
         <v>608</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="28">
         <v>628</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="28">
         <v>648</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="28">
         <v>668</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="28">
         <v>688</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="28">
         <v>708</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="28">
         <v>728</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="28">
         <v>748</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="28">
         <v>768</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="28">
         <v>788</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="28">
         <v>808</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="28">
         <v>828</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="28">
         <v>848</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="28">
         <v>868</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="28">
         <v>888</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="28">
         <v>904</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="28">
         <v>924</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="28">
         <v>944</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="28">
         <v>964</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="28">
         <v>984</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="28">
         <v>1004</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="28">
         <v>1024</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="28">
         <v>1044</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="28">
         <v>1064</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="28">
         <v>1084</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
+    <row r="7" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
     </row>
-    <row r="8" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28">
         <v>136</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="28">
         <v>216</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="28">
         <v>344</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="28">
         <v>488</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="28">
         <v>664</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="28">
         <v>784</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="28">
         <v>868</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="28">
         <v>972</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="28">
         <v>1092</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="28">
         <v>1140</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="28">
         <v>1180</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="28">
         <v>1316</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="28">
         <v>1332</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="28">
         <v>1332</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="28">
         <v>1332</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="28">
         <v>1332</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="28">
         <v>1332</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="28">
         <v>1332</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="28">
         <v>1332</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="28">
         <v>1332</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="28">
         <v>1332</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="28">
         <v>1332</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="28">
         <v>1332</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="28">
         <v>1332</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="28">
         <v>1332</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="28">
         <v>1332</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="28">
         <v>1332</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="28">
         <v>1332</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="28">
         <v>1332</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="28">
         <v>1332</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="28">
         <v>1332</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="28">
         <v>1332</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="28">
         <v>1332</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="28">
         <v>1332</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9" s="28">
         <v>1332</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="28">
         <v>1332</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="28">
         <v>1332</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9" s="28">
         <v>1332</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AP9" s="28">
         <v>1332</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9" s="28">
         <v>1332</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9" s="28">
         <v>1332</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="28">
         <v>1332</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="28">
         <v>1332</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9" s="28">
         <v>1332</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9" s="28">
         <v>1332</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AW9" s="28">
         <v>1332</v>
       </c>
       <c r="AX9" s="1"/>
@@ -7200,109 +6629,109 @@
       <c r="BB9" s="1"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28">
         <v>104</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="28">
         <v>184</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="28">
         <v>312</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="28">
         <v>444.28</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="28">
         <v>568.76165999999989</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="28">
         <v>718.21832999999992</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="28">
         <v>819.87666000000002</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="28">
         <v>936</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="28">
         <v>1064.8</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="28">
         <v>1136.8</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="28">
         <v>1151.345</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="28">
         <v>1248.8</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="28">
         <v>1320.35</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="28">
         <v>1332</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="28">
         <v>1332</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="28">
         <v>1332</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="28">
         <v>1332</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="28">
         <v>1332</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="28">
         <v>1332</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="28">
         <v>1332</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="28">
         <v>1332</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="28">
         <v>1332</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="28">
         <v>1332</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="28">
         <v>1332</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="28">
         <v>1332</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="28">
         <v>1332</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
@@ -7310,371 +6739,371 @@
       <c r="BB10" s="1"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28">
         <v>104</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="28">
         <v>184</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="28">
         <v>312</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="28">
         <v>448</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="28">
         <v>528</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="28">
         <v>648</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="28">
         <v>776</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="28">
         <v>900</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="28">
         <v>1024</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="28">
         <v>1096</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="28">
         <v>1108</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="28">
         <v>1212</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="28">
         <v>1280</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="28">
         <v>1292</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="28">
         <v>1292</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="28">
         <v>1292</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="28">
         <v>1292</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="28">
         <v>1292</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="28">
         <v>1292</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="28">
         <v>1292</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="28">
         <v>1292</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="28">
         <v>1292</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="28">
         <v>1292</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="28">
         <v>1292</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="28">
         <v>1292</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="28">
         <v>1292</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
+    <row r="12" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
     </row>
-    <row r="13" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="28">
         <v>144</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="28">
         <v>346.66667000000001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="28">
         <v>501.33337</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="28">
         <v>589.33340999999996</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="28">
         <v>613.33343000000002</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="28">
         <v>693.33349999999996</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="28">
         <v>784.00019000000009</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="28">
         <v>981.52852000000007</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="28">
         <v>1141.5285199999998</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="28">
         <v>1280.1951899999999</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="28">
         <v>1360.1951899999999</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="28">
         <v>1440.1951899999999</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="28">
         <v>1536.1951899999999</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="28">
         <v>1616.1951899999999</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="28">
         <v>1696.1951899999999</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="28">
         <v>1856.1951899999999</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="28">
         <v>2056.1951899999999</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="28">
         <v>2256.1951899999999</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="28">
         <v>2408.1951899999999</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AP14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AQ14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AR14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AS14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AT14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AU14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AV14" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AW14" s="28">
         <v>2434.86186</v>
       </c>
       <c r="AX14" s="1"/>
@@ -7684,109 +7113,109 @@
       <c r="BB14" s="1"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28">
         <v>51.553330000000003</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="28">
         <v>151.11000000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="28">
         <v>224</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="28">
         <v>312</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="28">
         <v>328</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="28">
         <v>722.86185999999998</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="28">
         <v>722.86185999999998</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="28">
         <v>735.58353</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="28">
         <v>759.68019000000004</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="28">
         <v>890.86185999999998</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="28">
         <v>972.93353000000002</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="28">
         <v>1146.86186</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="28">
         <v>1272.1952000000001</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="28">
         <v>1349.52853</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="28">
         <v>1429.52853</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="28">
         <v>1509.52853</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="28">
         <v>1589.52853</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="28">
         <v>1669.52853</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="28">
         <v>1869.52853</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="28">
         <v>2069.52853</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="28">
         <v>2245.52853</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="28">
         <v>2434.86186</v>
       </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
@@ -7794,371 +7223,371 @@
       <c r="BB15" s="1"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28">
         <v>48</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="28">
         <v>152</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="28">
         <v>224</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="28">
         <v>312</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="28">
         <v>328</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="28">
         <v>428</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="28">
         <v>428</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="28">
         <v>460</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="28">
         <v>500</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="28">
         <v>636</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="28">
         <v>712</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="28">
         <v>876</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="28">
         <v>1004</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="28">
         <v>1080</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="28">
         <v>1160</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="28">
         <v>1240</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="28">
         <v>1320</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="28">
         <v>1400</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="28">
         <v>1600</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="28">
         <v>1800</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="28">
         <v>1976</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="28">
         <v>2164</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="28">
         <v>2164</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="28">
         <v>2164</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="28">
         <v>2164</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="28">
         <v>2164</v>
       </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
+    <row r="17" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
     </row>
-    <row r="18" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28">
         <v>31.1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="28">
         <v>45.333329999999997</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="28">
         <v>58.666670000000003</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="28">
         <v>58.666670000000003</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="28">
         <v>58.666670000000003</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="28">
         <v>58.666670000000003</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="28">
         <v>58.666670000000003</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="28">
         <v>98.471670000000003</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="28">
         <v>148.94333</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="28">
         <v>252.88665999999998</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="28">
         <v>274.60998999999998</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="28">
         <v>357.44001000000009</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="28">
         <v>448.16334000000006</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="28">
         <v>528.16333999999995</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="28">
         <v>608.16333999999983</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="28">
         <v>688.16332999999986</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="28">
         <v>768.16332999999986</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="28">
         <v>848.16332999999986</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="28">
         <v>928.16332999999997</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="28">
         <v>1250.83</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="28">
         <v>1520.1633299999999</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="28">
         <v>1685.4966599999998</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="28">
         <v>1840.40833</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="28">
         <v>2005.0883299999998</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="28">
         <v>2116.4083300000002</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="28">
         <v>2556.4083300000002</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="28">
         <v>2974.7483299999999</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="28">
         <v>3154.7483299999999</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="28">
         <v>3421.3333299999999</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="28">
         <v>3861.3333299999999</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AL19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AM19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AN19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AO19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AP19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AQ19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AR19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AS19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AT19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AU19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AV19" s="28">
         <v>4037.3333299999999</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="AW19" s="28">
         <v>4037.3333299999999</v>
       </c>
       <c r="AX19" s="1"/>
@@ -8168,109 +7597,109 @@
       <c r="BB19" s="1"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="28">
         <v>26.66667</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="28">
         <v>53.333329999999997</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="28">
         <v>53.333329999999997</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="28">
         <v>53.333329999999997</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="28">
         <v>53.333329999999997</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="28">
         <v>53.333329999999997</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="28">
         <v>53.333329999999997</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="28">
         <v>108.54834</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="28">
         <v>124.75667</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="28">
         <v>163.80667</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="28">
         <v>219.68</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="28">
         <v>275.04667000000001</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="28">
         <v>384.25666999999999</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="28">
         <v>464.22</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="28">
         <v>544.22</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="28">
         <v>626.15666999999996</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="28">
         <v>700.18667000000005</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="28">
         <v>789.62</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="28">
         <v>862.38</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="28">
         <v>944.10333000000003</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="28">
         <v>1071.06333</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="28">
         <v>1432.38</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20" s="28">
         <v>1632.38</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20" s="28">
         <v>1826.6883300000002</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC20" s="28">
         <v>1953.7583300000001</v>
       </c>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
@@ -8278,231 +7707,231 @@
       <c r="BB20" s="1"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="28">
         <v>20</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="28">
         <v>40</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="28">
         <v>40</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="28">
         <v>40</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="28">
         <v>40</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="28">
         <v>40</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="28">
         <v>40</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="28">
         <v>104</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="28">
         <v>128</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="28">
         <v>160</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="28">
         <v>218</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="28">
         <v>278</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="28">
         <v>386</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="28">
         <v>466</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="28">
         <v>546</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="28">
         <v>626</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="28">
         <v>706</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="28">
         <v>788</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="28">
         <v>866</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="28">
         <v>946</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="28">
         <v>1082</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="28">
         <v>1435</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="28">
         <v>1628</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="28">
         <v>1784</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="28">
         <v>1880</v>
       </c>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
+    <row r="22" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
     </row>
-    <row r="23" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="15"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1"/>
@@ -8586,7 +8015,7 @@
       <c r="BB24" s="1"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="1"/>
@@ -8670,7 +8099,7 @@
       <c r="BB25" s="1"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1"/>
@@ -8764,7 +8193,7 @@
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8819,1644 +8248,1648 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="15"/>
-      <c r="AR28" s="15"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="15"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
     </row>
-    <row r="29" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="19">
         <v>2</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>4</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="19">
         <v>5</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="19">
         <v>6</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="19">
         <v>7</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="19">
         <v>8</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="19">
         <v>9</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="19">
         <v>10</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="19">
         <v>11</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="19">
         <v>12</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="19">
         <v>13</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="19">
         <v>14</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="19">
         <v>15</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="19">
         <v>16</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="19">
         <v>17</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="19">
         <v>18</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="19">
         <v>19</v>
       </c>
-      <c r="U29" s="23">
+      <c r="U29" s="19">
         <v>20</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="19">
         <v>21</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="19">
         <v>22</v>
       </c>
-      <c r="X29" s="23">
+      <c r="X29" s="19">
         <v>23</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y29" s="19">
         <v>24</v>
       </c>
-      <c r="Z29" s="23">
+      <c r="Z29" s="19">
         <v>25</v>
       </c>
-      <c r="AA29" s="23">
+      <c r="AA29" s="19">
         <v>26</v>
       </c>
-      <c r="AB29" s="23">
+      <c r="AB29" s="19">
         <v>27</v>
       </c>
-      <c r="AC29" s="23">
+      <c r="AC29" s="19">
         <v>28</v>
       </c>
-      <c r="AD29" s="23">
+      <c r="AD29" s="19">
         <v>29</v>
       </c>
-      <c r="AE29" s="23">
+      <c r="AE29" s="19">
         <v>30</v>
       </c>
-      <c r="AF29" s="23">
+      <c r="AF29" s="19">
         <v>31</v>
       </c>
-      <c r="AG29" s="23">
+      <c r="AG29" s="19">
         <v>32</v>
       </c>
-      <c r="AH29" s="23">
+      <c r="AH29" s="19">
         <v>33</v>
       </c>
-      <c r="AI29" s="23">
+      <c r="AI29" s="19">
         <v>34</v>
       </c>
-      <c r="AJ29" s="23">
+      <c r="AJ29" s="19">
         <v>35</v>
       </c>
-      <c r="AK29" s="23">
+      <c r="AK29" s="19">
         <v>36</v>
       </c>
-      <c r="AL29" s="23">
+      <c r="AL29" s="19">
         <v>37</v>
       </c>
-      <c r="AM29" s="23">
+      <c r="AM29" s="19">
         <v>38</v>
       </c>
-      <c r="AN29" s="23">
+      <c r="AN29" s="19">
         <v>39</v>
       </c>
-      <c r="AO29" s="23">
+      <c r="AO29" s="19">
         <v>40</v>
       </c>
-      <c r="AP29" s="23">
+      <c r="AP29" s="19">
         <v>41</v>
       </c>
-      <c r="AQ29" s="23">
+      <c r="AQ29" s="19">
         <v>42</v>
       </c>
-      <c r="AR29" s="23">
+      <c r="AR29" s="19">
         <v>43</v>
       </c>
-      <c r="AS29" s="23">
+      <c r="AS29" s="19">
         <v>44</v>
       </c>
-      <c r="AT29" s="23">
+      <c r="AT29" s="19">
         <v>45</v>
       </c>
-      <c r="AU29" s="23">
+      <c r="AU29" s="19">
         <v>46</v>
       </c>
-      <c r="AV29" s="23">
+      <c r="AV29" s="19">
         <v>47</v>
       </c>
-      <c r="AW29" s="23">
+      <c r="AW29" s="19">
         <v>48</v>
       </c>
-      <c r="AX29" s="23">
+      <c r="AX29" s="19">
         <v>49</v>
       </c>
-      <c r="AY29" s="23">
+      <c r="AY29" s="19">
         <v>50</v>
       </c>
-      <c r="AZ29" s="23">
+      <c r="AZ29" s="19">
         <v>51</v>
       </c>
-      <c r="BA29" s="23">
+      <c r="BA29" s="19">
         <v>52</v>
       </c>
-      <c r="BB29" s="23">
+      <c r="BB29" s="19">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="11">
-        <f>B4+B9+B14+B19+B24</f>
+      <c r="B30" s="8">
+        <f t="shared" ref="B30:AW30" si="0">B4+B9+B14+B19+B24</f>
         <v>364</v>
       </c>
-      <c r="C30" s="11">
-        <f>C4+C9+C14+C19+C24</f>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="D30" s="11">
-        <f>D4+D9+D14+D19+D24</f>
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
         <v>931.1</v>
       </c>
-      <c r="E30" s="11">
-        <f>E4+E9+E14+E19+E24</f>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="F30" s="11">
-        <f>F4+F9+F14+F19+F24</f>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
         <v>1564.0000400000001</v>
       </c>
-      <c r="G30" s="11">
-        <f>G4+G9+G14+G19+G24</f>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
         <v>1816.00008</v>
       </c>
-      <c r="H30" s="11">
-        <f>H4+H9+H14+H19+H24</f>
+      <c r="H30" s="8">
+        <f t="shared" si="0"/>
         <v>2036.0001000000002</v>
       </c>
-      <c r="I30" s="11">
-        <f>I4+I9+I14+I19+I24</f>
+      <c r="I30" s="8">
+        <f t="shared" si="0"/>
         <v>2256.0001699999998</v>
       </c>
-      <c r="J30" s="11">
-        <f>J4+J9+J14+J19+J24</f>
+      <c r="J30" s="8">
+        <f t="shared" si="0"/>
         <v>2450.6668600000003</v>
       </c>
-      <c r="K30" s="11">
-        <f>K4+K9+K14+K19+K24</f>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
         <v>2812.0001899999997</v>
       </c>
-      <c r="L30" s="11">
-        <f>L4+L9+L14+L19+L24</f>
+      <c r="L30" s="8">
+        <f t="shared" si="0"/>
         <v>3162.4718499999999</v>
       </c>
-      <c r="M30" s="11">
-        <f>M4+M9+M14+M19+M24</f>
+      <c r="M30" s="8">
+        <f t="shared" si="0"/>
         <v>3473.08185</v>
       </c>
-      <c r="N30" s="11">
-        <f>N4+N9+N14+N19+N24</f>
+      <c r="N30" s="8">
+        <f t="shared" si="0"/>
         <v>3634.8051799999998</v>
       </c>
-      <c r="O30" s="11">
-        <f>O4+O9+O14+O19+O24</f>
+      <c r="O30" s="8">
+        <f t="shared" si="0"/>
         <v>3953.6352000000002</v>
       </c>
-      <c r="P30" s="11">
-        <f>P4+P9+P14+P19+P24</f>
+      <c r="P30" s="8">
+        <f t="shared" si="0"/>
         <v>4176.3585299999995</v>
       </c>
-      <c r="Q30" s="11">
-        <f>Q4+Q9+Q14+Q19+Q24</f>
+      <c r="Q30" s="8">
+        <f t="shared" si="0"/>
         <v>4356.3585299999995</v>
       </c>
-      <c r="R30" s="11">
-        <f>R4+R9+R14+R19+R24</f>
+      <c r="R30" s="8">
+        <f t="shared" si="0"/>
         <v>4536.3585299999995</v>
       </c>
-      <c r="S30" s="11">
-        <f>S4+S9+S14+S19+S24</f>
+      <c r="S30" s="8">
+        <f t="shared" si="0"/>
         <v>4796.3585199999998</v>
       </c>
-      <c r="T30" s="11">
-        <f>T4+T9+T14+T19+T24</f>
+      <c r="T30" s="8">
+        <f t="shared" si="0"/>
         <v>5096.3585199999998</v>
       </c>
-      <c r="U30" s="11">
-        <f>U4+U9+U14+U19+U24</f>
+      <c r="U30" s="8">
+        <f t="shared" si="0"/>
         <v>5396.3585199999998</v>
       </c>
-      <c r="V30" s="11">
-        <f>V4+V9+V14+V19+V24</f>
+      <c r="V30" s="8">
+        <f t="shared" si="0"/>
         <v>5648.3585200000007</v>
       </c>
-      <c r="W30" s="11">
-        <f>W4+W9+W14+W19+W24</f>
+      <c r="W30" s="8">
+        <f t="shared" si="0"/>
         <v>6017.6918599999999</v>
       </c>
-      <c r="X30" s="11">
-        <f>X4+X9+X14+X19+X24</f>
+      <c r="X30" s="8">
+        <f t="shared" si="0"/>
         <v>6307.0251900000003</v>
       </c>
-      <c r="Y30" s="11">
-        <f>Y4+Y9+Y14+Y19+Y24</f>
+      <c r="Y30" s="8">
+        <f t="shared" si="0"/>
         <v>6492.3585199999998</v>
       </c>
-      <c r="Z30" s="11">
-        <f>Z4+Z9+Z14+Z19+Z24</f>
+      <c r="Z30" s="8">
+        <f t="shared" si="0"/>
         <v>6667.2701900000002</v>
       </c>
-      <c r="AA30" s="11">
-        <f>AA4+AA9+AA14+AA19+AA24</f>
+      <c r="AA30" s="8">
+        <f t="shared" si="0"/>
         <v>6851.9501899999996</v>
       </c>
-      <c r="AB30" s="11">
-        <f>AB4+AB9+AB14+AB19+AB24</f>
+      <c r="AB30" s="8">
+        <f t="shared" si="0"/>
         <v>6983.2701900000002</v>
       </c>
-      <c r="AC30" s="11">
-        <f>AC4+AC9+AC14+AC19+AC24</f>
+      <c r="AC30" s="8">
+        <f t="shared" si="0"/>
         <v>7443.2701900000002</v>
       </c>
-      <c r="AD30" s="11">
-        <f>AD4+AD9+AD14+AD19+AD24</f>
+      <c r="AD30" s="8">
+        <f t="shared" si="0"/>
         <v>7881.6101899999994</v>
       </c>
-      <c r="AE30" s="11">
-        <f>AE4+AE9+AE14+AE19+AE24</f>
+      <c r="AE30" s="8">
+        <f t="shared" si="0"/>
         <v>8081.6101899999994</v>
       </c>
-      <c r="AF30" s="11">
-        <f>AF4+AF9+AF14+AF19+AF24</f>
+      <c r="AF30" s="8">
+        <f t="shared" si="0"/>
         <v>8368.1951900000004</v>
       </c>
-      <c r="AG30" s="11">
-        <f>AG4+AG9+AG14+AG19+AG24</f>
+      <c r="AG30" s="8">
+        <f t="shared" si="0"/>
         <v>8828.1951900000004</v>
       </c>
-      <c r="AH30" s="11">
-        <f>AH4+AH9+AH14+AH19+AH24</f>
+      <c r="AH30" s="8">
+        <f t="shared" si="0"/>
         <v>9024.1951900000004</v>
       </c>
-      <c r="AI30" s="11">
-        <f>AI4+AI9+AI14+AI19+AI24</f>
+      <c r="AI30" s="8">
+        <f t="shared" si="0"/>
         <v>9044.1951900000004</v>
       </c>
-      <c r="AJ30" s="11">
-        <f>AJ4+AJ9+AJ14+AJ19+AJ24</f>
+      <c r="AJ30" s="8">
+        <f t="shared" si="0"/>
         <v>9064.1951900000004</v>
       </c>
-      <c r="AK30" s="11">
-        <f>AK4+AK9+AK14+AK19+AK24</f>
+      <c r="AK30" s="8">
+        <f t="shared" si="0"/>
         <v>10348.19519</v>
       </c>
-      <c r="AL30" s="11">
-        <f>AL4+AL9+AL14+AL19+AL24</f>
+      <c r="AL30" s="8">
+        <f t="shared" si="0"/>
         <v>10416.19519</v>
       </c>
-      <c r="AM30" s="11">
-        <f>AM4+AM9+AM14+AM19+AM24</f>
+      <c r="AM30" s="8">
+        <f t="shared" si="0"/>
         <v>10572.19519</v>
       </c>
-      <c r="AN30" s="11">
-        <f>AN4+AN9+AN14+AN19+AN24</f>
+      <c r="AN30" s="8">
+        <f t="shared" si="0"/>
         <v>10792.19519</v>
       </c>
-      <c r="AO30" s="11">
-        <f>AO4+AO9+AO14+AO19+AO24</f>
+      <c r="AO30" s="8">
+        <f t="shared" si="0"/>
         <v>11012.19519</v>
       </c>
-      <c r="AP30" s="11">
-        <f>AP4+AP9+AP14+AP19+AP24</f>
+      <c r="AP30" s="8">
+        <f t="shared" si="0"/>
         <v>11232.19519</v>
       </c>
-      <c r="AQ30" s="11">
-        <f>AQ4+AQ9+AQ14+AQ19+AQ24</f>
+      <c r="AQ30" s="8">
+        <f t="shared" si="0"/>
         <v>11452.19519</v>
       </c>
-      <c r="AR30" s="11">
-        <f>AR4+AR9+AR14+AR19+AR24</f>
+      <c r="AR30" s="8">
+        <f t="shared" si="0"/>
         <v>11672.19519</v>
       </c>
-      <c r="AS30" s="11">
-        <f>AS4+AS9+AS14+AS19+AS24</f>
+      <c r="AS30" s="8">
+        <f t="shared" si="0"/>
         <v>11892.19519</v>
       </c>
-      <c r="AT30" s="11">
-        <f>AT4+AT9+AT14+AT19+AT24</f>
+      <c r="AT30" s="8">
+        <f t="shared" si="0"/>
         <v>12120.19519</v>
       </c>
-      <c r="AU30" s="11">
-        <f>AU4+AU9+AU14+AU19+AU24</f>
+      <c r="AU30" s="8">
+        <f t="shared" si="0"/>
         <v>12148.19519</v>
       </c>
-      <c r="AV30" s="11">
-        <f>AV4+AV9+AV14+AV19+AV24</f>
+      <c r="AV30" s="8">
+        <f t="shared" si="0"/>
         <v>12148.19519</v>
       </c>
-      <c r="AW30" s="11">
-        <f>AW4+AW9+AW14+AW19+AW24</f>
+      <c r="AW30" s="8">
+        <f t="shared" si="0"/>
         <v>12148.19519</v>
       </c>
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="12"/>
-      <c r="AZ30" s="12"/>
-      <c r="BA30" s="12"/>
-      <c r="BB30" s="12"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="12">
-        <f>B5+B10+B15+B20+B25</f>
+      <c r="B31" s="9">
+        <f t="shared" ref="B31:AC31" si="1">B5+B10+B15+B20+B25</f>
         <v>311.98</v>
       </c>
-      <c r="C31" s="12">
-        <f>C5+C10+C15+C20+C25</f>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
-      <c r="D31" s="12">
-        <f>D5+D10+D15+D20+D25</f>
+      <c r="D31" s="9">
+        <f t="shared" si="1"/>
         <v>775.55332999999996</v>
       </c>
-      <c r="E31" s="12">
-        <f>E5+E10+E15+E20+E25</f>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
         <v>1001.77667</v>
       </c>
-      <c r="F31" s="12">
-        <f>F5+F10+F15+F20+F25</f>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
         <v>1249.3333299999999</v>
       </c>
-      <c r="G31" s="12">
-        <f>G5+G10+G15+G20+G25</f>
+      <c r="G31" s="9">
+        <f t="shared" si="1"/>
         <v>1489.6133299999999</v>
       </c>
-      <c r="H31" s="12">
-        <f>H5+H10+H15+H20+H25</f>
+      <c r="H31" s="9">
+        <f t="shared" si="1"/>
         <v>1650.0949899999998</v>
       </c>
-      <c r="I31" s="12">
-        <f>I5+I10+I15+I20+I25</f>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
         <v>2214.4135199999996</v>
       </c>
-      <c r="J31" s="12">
-        <f>J5+J10+J15+J20+J25</f>
+      <c r="J31" s="9">
+        <f t="shared" si="1"/>
         <v>2336.0718499999998</v>
       </c>
-      <c r="K31" s="12">
-        <f>K5+K10+K15+K20+K25</f>
+      <c r="K31" s="9">
+        <f t="shared" si="1"/>
         <v>2484.9168599999998</v>
       </c>
-      <c r="L31" s="12">
-        <f>L5+L10+L15+L20+L25</f>
+      <c r="L31" s="9">
+        <f t="shared" si="1"/>
         <v>2713.02853</v>
       </c>
-      <c r="M31" s="12">
-        <f>M5+M10+M15+M20+M25</f>
+      <c r="M31" s="9">
+        <f t="shared" si="1"/>
         <v>2952.4185300000004</v>
       </c>
-      <c r="N31" s="12">
-        <f>N5+N10+N15+N20+N25</f>
+      <c r="N31" s="9">
+        <f t="shared" si="1"/>
         <v>3108.0852</v>
       </c>
-      <c r="O31" s="12">
-        <f>O5+O10+O15+O20+O25</f>
+      <c r="O31" s="9">
+        <f t="shared" si="1"/>
         <v>3455.34186</v>
       </c>
-      <c r="P31" s="12">
-        <f>P5+P10+P15+P20+P25</f>
+      <c r="P31" s="9">
+        <f t="shared" si="1"/>
         <v>3727.5918700000002</v>
       </c>
-      <c r="Q31" s="12">
-        <f>Q5+Q10+Q15+Q20+Q25</f>
+      <c r="Q31" s="9">
+        <f t="shared" si="1"/>
         <v>3945.7852000000003</v>
       </c>
-      <c r="R31" s="12">
-        <f>R5+R10+R15+R20+R25</f>
+      <c r="R31" s="9">
+        <f t="shared" si="1"/>
         <v>4125.7485299999998</v>
       </c>
-      <c r="S31" s="12">
-        <f>S5+S10+S15+S20+S25</f>
+      <c r="S31" s="9">
+        <f t="shared" si="1"/>
         <v>4305.7485299999998</v>
       </c>
-      <c r="T31" s="12">
-        <f>T5+T10+T15+T20+T25</f>
+      <c r="T31" s="9">
+        <f t="shared" si="1"/>
         <v>4487.6851999999999</v>
       </c>
-      <c r="U31" s="12">
-        <f>U5+U10+U15+U20+U25</f>
+      <c r="U31" s="9">
+        <f t="shared" si="1"/>
         <v>4661.7152000000006</v>
       </c>
-      <c r="V31" s="12">
-        <f>V5+V10+V15+V20+V25</f>
+      <c r="V31" s="9">
+        <f t="shared" si="1"/>
         <v>4971.1485299999995</v>
       </c>
-      <c r="W31" s="12">
-        <f>W5+W10+W15+W20+W25</f>
+      <c r="W31" s="9">
+        <f t="shared" si="1"/>
         <v>5263.9085299999997</v>
       </c>
-      <c r="X31" s="12">
-        <f>X5+X10+X15+X20+X25</f>
+      <c r="X31" s="9">
+        <f t="shared" si="1"/>
         <v>5541.6318599999995</v>
       </c>
-      <c r="Y31" s="12">
-        <f>Y5+Y10+Y15+Y20+Y25</f>
+      <c r="Y31" s="9">
+        <f t="shared" si="1"/>
         <v>5877.9251899999999</v>
       </c>
-      <c r="Z31" s="12">
-        <f>Z5+Z10+Z15+Z20+Z25</f>
+      <c r="Z31" s="9">
+        <f t="shared" si="1"/>
         <v>6259.2418600000001</v>
       </c>
-      <c r="AA31" s="12">
-        <f>AA5+AA10+AA15+AA20+AA25</f>
+      <c r="AA31" s="9">
+        <f t="shared" si="1"/>
         <v>6479.2418600000001</v>
       </c>
-      <c r="AB31" s="12">
-        <f>AB5+AB10+AB15+AB20+AB25</f>
+      <c r="AB31" s="9">
+        <f t="shared" si="1"/>
         <v>6693.5501899999999</v>
       </c>
-      <c r="AC31" s="12">
-        <f>AC5+AC10+AC15+AC20+AC25</f>
+      <c r="AC31" s="9">
+        <f t="shared" si="1"/>
         <v>6840.6201899999996</v>
       </c>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="12"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
-      <c r="AX31" s="12"/>
-      <c r="AY31" s="12"/>
-      <c r="AZ31" s="12"/>
-      <c r="BA31" s="12"/>
-      <c r="BB31" s="12"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="28">
-        <f>B6+B11+B16+B21+B26</f>
+      <c r="B32" s="24">
+        <f t="shared" ref="B32:AC32" si="2">B6+B11+B16+B21+B26</f>
         <v>364</v>
       </c>
-      <c r="C32" s="28">
-        <f>C6+C11+C16+C21+C26</f>
+      <c r="C32" s="24">
+        <f t="shared" si="2"/>
         <v>564</v>
       </c>
-      <c r="D32" s="28">
-        <f>D6+D11+D16+D21+D26</f>
+      <c r="D32" s="24">
+        <f t="shared" si="2"/>
         <v>740</v>
       </c>
-      <c r="E32" s="28">
-        <f>E6+E11+E16+E21+E26</f>
+      <c r="E32" s="24">
+        <f t="shared" si="2"/>
         <v>964</v>
       </c>
-      <c r="F32" s="28">
-        <f>F6+F11+F16+F21+F26</f>
+      <c r="F32" s="24">
+        <f t="shared" si="2"/>
         <v>1204</v>
       </c>
-      <c r="G32" s="28">
-        <f>G6+G11+G16+G21+G26</f>
+      <c r="G32" s="24">
+        <f t="shared" si="2"/>
         <v>1448</v>
       </c>
-      <c r="H32" s="28">
-        <f>H6+H11+H16+H21+H26</f>
+      <c r="H32" s="24">
+        <f t="shared" si="2"/>
         <v>1564</v>
       </c>
-      <c r="I32" s="28">
-        <f>I6+I11+I16+I21+I26</f>
+      <c r="I32" s="24">
+        <f t="shared" si="2"/>
         <v>1804</v>
       </c>
-      <c r="J32" s="28">
-        <f>J6+J11+J16+J21+J26</f>
+      <c r="J32" s="24">
+        <f t="shared" si="2"/>
         <v>1952</v>
       </c>
-      <c r="K32" s="28">
-        <f>K6+K11+K16+K21+K26</f>
+      <c r="K32" s="24">
+        <f t="shared" si="2"/>
         <v>2128</v>
       </c>
-      <c r="L32" s="28">
-        <f>L6+L11+L16+L21+L26</f>
+      <c r="L32" s="24">
+        <f t="shared" si="2"/>
         <v>2376</v>
       </c>
-      <c r="M32" s="28">
-        <f>M6+M11+M16+M21+M26</f>
+      <c r="M32" s="24">
+        <f t="shared" si="2"/>
         <v>2628</v>
       </c>
-      <c r="N32" s="28">
-        <f>N6+N11+N16+N21+N26</f>
+      <c r="N32" s="24">
+        <f t="shared" si="2"/>
         <v>2768</v>
       </c>
-      <c r="O32" s="28">
-        <f>O6+O11+O16+O21+O26</f>
+      <c r="O32" s="24">
+        <f t="shared" si="2"/>
         <v>3114</v>
       </c>
-      <c r="P32" s="28">
-        <f>P6+P11+P16+P21+P26</f>
+      <c r="P32" s="24">
+        <f t="shared" si="2"/>
         <v>3390</v>
       </c>
-      <c r="Q32" s="28">
-        <f>Q6+Q11+Q16+Q21+Q26</f>
+      <c r="Q32" s="24">
+        <f t="shared" si="2"/>
         <v>3606</v>
       </c>
-      <c r="R32" s="28">
-        <f>R6+R11+R16+R21+R26</f>
+      <c r="R32" s="24">
+        <f t="shared" si="2"/>
         <v>3786</v>
       </c>
-      <c r="S32" s="28">
-        <f>S6+S11+S16+S21+S26</f>
+      <c r="S32" s="24">
+        <f t="shared" si="2"/>
         <v>3966</v>
       </c>
-      <c r="T32" s="28">
-        <f>T6+T11+T16+T21+T26</f>
+      <c r="T32" s="24">
+        <f t="shared" si="2"/>
         <v>4142</v>
       </c>
-      <c r="U32" s="28">
-        <f>U6+U11+U16+U21+U26</f>
+      <c r="U32" s="24">
+        <f t="shared" si="2"/>
         <v>4322</v>
       </c>
-      <c r="V32" s="28">
-        <f>V6+V11+V16+V21+V26</f>
+      <c r="V32" s="24">
+        <f t="shared" si="2"/>
         <v>4624</v>
       </c>
-      <c r="W32" s="28">
-        <f>W6+W11+W16+W21+W26</f>
+      <c r="W32" s="24">
+        <f t="shared" si="2"/>
         <v>4922</v>
       </c>
-      <c r="X32" s="28">
-        <f>X6+X11+X16+X21+X26</f>
+      <c r="X32" s="24">
+        <f t="shared" si="2"/>
         <v>5198</v>
       </c>
-      <c r="Y32" s="28">
-        <f>Y6+Y11+Y16+Y21+Y26</f>
+      <c r="Y32" s="24">
+        <f t="shared" si="2"/>
         <v>5542</v>
       </c>
-      <c r="Z32" s="28">
-        <f>Z6+Z11+Z16+Z21+Z26</f>
+      <c r="Z32" s="24">
+        <f t="shared" si="2"/>
         <v>5915</v>
       </c>
-      <c r="AA32" s="28">
-        <f>AA6+AA11+AA16+AA21+AA26</f>
+      <c r="AA32" s="24">
+        <f t="shared" si="2"/>
         <v>6128</v>
       </c>
-      <c r="AB32" s="28">
-        <f>AB6+AB11+AB16+AB21+AB26</f>
+      <c r="AB32" s="24">
+        <f t="shared" si="2"/>
         <v>6304</v>
       </c>
-      <c r="AC32" s="28">
-        <f>AC6+AC11+AC16+AC21+AC26</f>
+      <c r="AC32" s="24">
+        <f t="shared" si="2"/>
         <v>6420</v>
       </c>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="28"/>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="28"/>
-      <c r="AZ32" s="28"/>
-      <c r="BA32" s="28"/>
-      <c r="BB32" s="28"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+      <c r="BA32" s="24"/>
+      <c r="BB32" s="24"/>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <f>B31-B32</f>
         <v>-52.019999999999982</v>
       </c>
-      <c r="C33" s="12">
-        <f t="shared" ref="C33:AC33" si="0">C31-C32</f>
+      <c r="C33" s="9">
+        <f t="shared" ref="C33:AC33" si="3">C31-C32</f>
         <v>32</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
+      <c r="D33" s="9">
+        <f t="shared" si="3"/>
         <v>35.55332999999996</v>
       </c>
-      <c r="E33" s="12">
-        <f t="shared" si="0"/>
+      <c r="E33" s="9">
+        <f t="shared" si="3"/>
         <v>37.776669999999967</v>
       </c>
-      <c r="F33" s="12">
-        <f t="shared" si="0"/>
+      <c r="F33" s="9">
+        <f t="shared" si="3"/>
         <v>45.333329999999933</v>
       </c>
-      <c r="G33" s="12">
-        <f t="shared" si="0"/>
+      <c r="G33" s="9">
+        <f t="shared" si="3"/>
         <v>41.613329999999905</v>
       </c>
-      <c r="H33" s="12">
-        <f t="shared" si="0"/>
+      <c r="H33" s="9">
+        <f t="shared" si="3"/>
         <v>86.094989999999825</v>
       </c>
-      <c r="I33" s="12">
-        <f t="shared" si="0"/>
+      <c r="I33" s="9">
+        <f t="shared" si="3"/>
         <v>410.41351999999961</v>
       </c>
-      <c r="J33" s="12">
-        <f t="shared" si="0"/>
+      <c r="J33" s="9">
+        <f t="shared" si="3"/>
         <v>384.07184999999981</v>
       </c>
-      <c r="K33" s="12">
-        <f t="shared" si="0"/>
+      <c r="K33" s="9">
+        <f t="shared" si="3"/>
         <v>356.91685999999982</v>
       </c>
-      <c r="L33" s="12">
-        <f t="shared" si="0"/>
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
         <v>337.02853000000005</v>
       </c>
-      <c r="M33" s="12">
-        <f t="shared" si="0"/>
+      <c r="M33" s="9">
+        <f t="shared" si="3"/>
         <v>324.41853000000037</v>
       </c>
-      <c r="N33" s="12">
-        <f t="shared" si="0"/>
+      <c r="N33" s="9">
+        <f t="shared" si="3"/>
         <v>340.08519999999999</v>
       </c>
-      <c r="O33" s="12">
-        <f t="shared" si="0"/>
+      <c r="O33" s="9">
+        <f t="shared" si="3"/>
         <v>341.34186</v>
       </c>
-      <c r="P33" s="12">
-        <f t="shared" si="0"/>
+      <c r="P33" s="9">
+        <f t="shared" si="3"/>
         <v>337.5918700000002</v>
       </c>
-      <c r="Q33" s="12">
-        <f t="shared" si="0"/>
+      <c r="Q33" s="9">
+        <f t="shared" si="3"/>
         <v>339.78520000000026</v>
       </c>
-      <c r="R33" s="12">
-        <f t="shared" si="0"/>
+      <c r="R33" s="9">
+        <f t="shared" si="3"/>
         <v>339.74852999999985</v>
       </c>
-      <c r="S33" s="12">
-        <f t="shared" si="0"/>
+      <c r="S33" s="9">
+        <f t="shared" si="3"/>
         <v>339.74852999999985</v>
       </c>
-      <c r="T33" s="12">
-        <f t="shared" si="0"/>
+      <c r="T33" s="9">
+        <f t="shared" si="3"/>
         <v>345.6851999999999</v>
       </c>
-      <c r="U33" s="12">
-        <f t="shared" si="0"/>
+      <c r="U33" s="9">
+        <f t="shared" si="3"/>
         <v>339.71520000000055</v>
       </c>
-      <c r="V33" s="12">
-        <f t="shared" si="0"/>
+      <c r="V33" s="9">
+        <f t="shared" si="3"/>
         <v>347.14852999999948</v>
       </c>
-      <c r="W33" s="12">
-        <f t="shared" si="0"/>
+      <c r="W33" s="9">
+        <f t="shared" si="3"/>
         <v>341.9085299999997</v>
       </c>
-      <c r="X33" s="12">
-        <f t="shared" si="0"/>
+      <c r="X33" s="9">
+        <f t="shared" si="3"/>
         <v>343.63185999999951</v>
       </c>
-      <c r="Y33" s="12">
-        <f t="shared" si="0"/>
+      <c r="Y33" s="9">
+        <f t="shared" si="3"/>
         <v>335.92518999999993</v>
       </c>
-      <c r="Z33" s="12">
-        <f t="shared" si="0"/>
+      <c r="Z33" s="9">
+        <f t="shared" si="3"/>
         <v>344.24186000000009</v>
       </c>
-      <c r="AA33" s="12">
-        <f t="shared" si="0"/>
+      <c r="AA33" s="9">
+        <f t="shared" si="3"/>
         <v>351.24186000000009</v>
       </c>
-      <c r="AB33" s="12">
-        <f t="shared" si="0"/>
+      <c r="AB33" s="9">
+        <f t="shared" si="3"/>
         <v>389.55018999999993</v>
       </c>
-      <c r="AC33" s="12">
-        <f t="shared" si="0"/>
+      <c r="AC33" s="9">
+        <f t="shared" si="3"/>
         <v>420.62018999999964</v>
       </c>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="24"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="24"/>
-      <c r="AS33" s="24"/>
-      <c r="AT33" s="24"/>
-      <c r="AU33" s="24"/>
-      <c r="AV33" s="24"/>
-      <c r="AW33" s="24"/>
-      <c r="AX33" s="24"/>
-      <c r="AY33" s="24"/>
-      <c r="AZ33" s="24"/>
-      <c r="BA33" s="24"/>
-      <c r="BB33" s="24"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="20"/>
+      <c r="AT33" s="20"/>
+      <c r="AU33" s="20"/>
+      <c r="AV33" s="20"/>
+      <c r="AW33" s="20"/>
+      <c r="AX33" s="20"/>
+      <c r="AY33" s="20"/>
+      <c r="AZ33" s="20"/>
+      <c r="BA33" s="20"/>
+      <c r="BB33" s="20"/>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>B31-B30</f>
         <v>-52.019999999999982</v>
       </c>
-      <c r="C34" s="12">
-        <f t="shared" ref="C34:AC34" si="1">C31-C30</f>
+      <c r="C34" s="9">
+        <f t="shared" ref="C34:AC34" si="4">C31-C30</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12">
-        <f t="shared" si="1"/>
+      <c r="D34" s="9">
+        <f t="shared" si="4"/>
         <v>-155.54667000000006</v>
       </c>
-      <c r="E34" s="12">
-        <f t="shared" si="1"/>
+      <c r="E34" s="9">
+        <f t="shared" si="4"/>
         <v>-246.22333000000003</v>
       </c>
-      <c r="F34" s="12">
-        <f t="shared" si="1"/>
+      <c r="F34" s="9">
+        <f t="shared" si="4"/>
         <v>-314.66671000000019</v>
       </c>
-      <c r="G34" s="12">
-        <f t="shared" si="1"/>
+      <c r="G34" s="9">
+        <f t="shared" si="4"/>
         <v>-326.38675000000012</v>
       </c>
-      <c r="H34" s="12">
-        <f t="shared" si="1"/>
+      <c r="H34" s="9">
+        <f t="shared" si="4"/>
         <v>-385.90511000000038</v>
       </c>
-      <c r="I34" s="12">
-        <f t="shared" si="1"/>
+      <c r="I34" s="9">
+        <f t="shared" si="4"/>
         <v>-41.586650000000191</v>
       </c>
-      <c r="J34" s="12">
-        <f t="shared" si="1"/>
+      <c r="J34" s="9">
+        <f t="shared" si="4"/>
         <v>-114.59501000000046</v>
       </c>
-      <c r="K34" s="12">
-        <f t="shared" si="1"/>
+      <c r="K34" s="9">
+        <f t="shared" si="4"/>
         <v>-327.08332999999993</v>
       </c>
-      <c r="L34" s="12">
-        <f t="shared" si="1"/>
+      <c r="L34" s="9">
+        <f t="shared" si="4"/>
         <v>-449.44331999999986</v>
       </c>
-      <c r="M34" s="12">
-        <f t="shared" si="1"/>
+      <c r="M34" s="9">
+        <f t="shared" si="4"/>
         <v>-520.66331999999966</v>
       </c>
-      <c r="N34" s="12">
-        <f t="shared" si="1"/>
+      <c r="N34" s="9">
+        <f t="shared" si="4"/>
         <v>-526.71997999999985</v>
       </c>
-      <c r="O34" s="12">
-        <f t="shared" si="1"/>
+      <c r="O34" s="9">
+        <f t="shared" si="4"/>
         <v>-498.29334000000017</v>
       </c>
-      <c r="P34" s="12">
-        <f t="shared" si="1"/>
+      <c r="P34" s="9">
+        <f t="shared" si="4"/>
         <v>-448.76665999999932</v>
       </c>
-      <c r="Q34" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q34" s="9">
+        <f t="shared" si="4"/>
         <v>-410.57332999999926</v>
       </c>
-      <c r="R34" s="12">
-        <f t="shared" si="1"/>
+      <c r="R34" s="9">
+        <f t="shared" si="4"/>
         <v>-410.60999999999967</v>
       </c>
-      <c r="S34" s="12">
-        <f t="shared" si="1"/>
+      <c r="S34" s="9">
+        <f t="shared" si="4"/>
         <v>-490.60998999999993</v>
       </c>
-      <c r="T34" s="12">
-        <f t="shared" si="1"/>
+      <c r="T34" s="9">
+        <f t="shared" si="4"/>
         <v>-608.67331999999988</v>
       </c>
-      <c r="U34" s="12">
-        <f t="shared" si="1"/>
+      <c r="U34" s="9">
+        <f t="shared" si="4"/>
         <v>-734.64331999999922</v>
       </c>
-      <c r="V34" s="12">
-        <f t="shared" si="1"/>
+      <c r="V34" s="9">
+        <f t="shared" si="4"/>
         <v>-677.2099900000012</v>
       </c>
-      <c r="W34" s="12">
-        <f t="shared" si="1"/>
+      <c r="W34" s="9">
+        <f t="shared" si="4"/>
         <v>-753.78333000000021</v>
       </c>
-      <c r="X34" s="12">
-        <f t="shared" si="1"/>
+      <c r="X34" s="9">
+        <f t="shared" si="4"/>
         <v>-765.39333000000079</v>
       </c>
-      <c r="Y34" s="12">
-        <f t="shared" si="1"/>
+      <c r="Y34" s="9">
+        <f t="shared" si="4"/>
         <v>-614.43332999999984</v>
       </c>
-      <c r="Z34" s="12">
-        <f t="shared" si="1"/>
+      <c r="Z34" s="9">
+        <f t="shared" si="4"/>
         <v>-408.0283300000001</v>
       </c>
-      <c r="AA34" s="12">
-        <f t="shared" si="1"/>
+      <c r="AA34" s="9">
+        <f t="shared" si="4"/>
         <v>-372.70832999999948</v>
       </c>
-      <c r="AB34" s="12">
-        <f t="shared" si="1"/>
+      <c r="AB34" s="9">
+        <f t="shared" si="4"/>
         <v>-289.72000000000025</v>
       </c>
-      <c r="AC34" s="12">
-        <f t="shared" si="1"/>
+      <c r="AC34" s="9">
+        <f t="shared" si="4"/>
         <v>-602.65000000000055</v>
       </c>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="24"/>
-      <c r="AL34" s="24"/>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="24"/>
-      <c r="AO34" s="24"/>
-      <c r="AP34" s="24"/>
-      <c r="AQ34" s="24"/>
-      <c r="AR34" s="24"/>
-      <c r="AS34" s="24"/>
-      <c r="AT34" s="24"/>
-      <c r="AU34" s="24"/>
-      <c r="AV34" s="24"/>
-      <c r="AW34" s="24"/>
-      <c r="AX34" s="24"/>
-      <c r="AY34" s="24"/>
-      <c r="AZ34" s="24"/>
-      <c r="BA34" s="24"/>
-      <c r="BB34" s="24"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="20"/>
+      <c r="AS34" s="20"/>
+      <c r="AT34" s="20"/>
+      <c r="AU34" s="20"/>
+      <c r="AV34" s="20"/>
+      <c r="AW34" s="20"/>
+      <c r="AX34" s="20"/>
+      <c r="AY34" s="20"/>
+      <c r="AZ34" s="20"/>
+      <c r="BA34" s="20"/>
+      <c r="BB34" s="20"/>
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="24">
-        <f>B31/B30</f>
+      <c r="B35" s="20">
+        <f t="shared" ref="B35:AC35" si="5">B31/B30</f>
         <v>0.85708791208791213</v>
       </c>
-      <c r="C35" s="24">
-        <f>C31/C30</f>
+      <c r="C35" s="20">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D35" s="24">
-        <f>D31/D30</f>
+      <c r="D35" s="20">
+        <f t="shared" si="5"/>
         <v>0.83294311029964552</v>
       </c>
-      <c r="E35" s="24">
-        <f>E31/E30</f>
+      <c r="E35" s="20">
+        <f t="shared" si="5"/>
         <v>0.80270566506410257</v>
       </c>
-      <c r="F35" s="24">
-        <f>F31/F30</f>
+      <c r="F35" s="20">
+        <f t="shared" si="5"/>
         <v>0.79880645655226445</v>
       </c>
-      <c r="G35" s="24">
-        <f>G31/G30</f>
+      <c r="G35" s="20">
+        <f t="shared" si="5"/>
         <v>0.82027162135367304</v>
       </c>
-      <c r="H35" s="24">
-        <f>H31/H30</f>
+      <c r="H35" s="20">
+        <f t="shared" si="5"/>
         <v>0.8104591890737135</v>
       </c>
-      <c r="I35" s="24">
-        <f>I31/I30</f>
+      <c r="I35" s="20">
+        <f t="shared" si="5"/>
         <v>0.98156620263020633</v>
       </c>
-      <c r="J35" s="24">
-        <f>J31/J30</f>
+      <c r="J35" s="20">
+        <f t="shared" si="5"/>
         <v>0.95323925423302924</v>
       </c>
-      <c r="K35" s="24">
-        <f>K31/K30</f>
+      <c r="K35" s="20">
+        <f t="shared" si="5"/>
         <v>0.8836830341750439</v>
       </c>
-      <c r="L35" s="24">
-        <f>L31/L30</f>
+      <c r="L35" s="20">
+        <f t="shared" si="5"/>
         <v>0.85788227016155105</v>
       </c>
-      <c r="M35" s="24">
-        <f>M31/M30</f>
+      <c r="M35" s="20">
+        <f t="shared" si="5"/>
         <v>0.85008607844931738</v>
       </c>
-      <c r="N35" s="24">
-        <f>N31/N30</f>
+      <c r="N35" s="20">
+        <f t="shared" si="5"/>
         <v>0.85508990058168677</v>
       </c>
-      <c r="O35" s="24">
-        <f>O31/O30</f>
+      <c r="O35" s="20">
+        <f t="shared" si="5"/>
         <v>0.87396577711570356</v>
       </c>
-      <c r="P35" s="24">
-        <f>P31/P30</f>
+      <c r="P35" s="20">
+        <f t="shared" si="5"/>
         <v>0.8925459448042169</v>
       </c>
-      <c r="Q35" s="24">
-        <f>Q31/Q30</f>
+      <c r="Q35" s="20">
+        <f t="shared" si="5"/>
         <v>0.90575309006993066</v>
       </c>
-      <c r="R35" s="24">
-        <f>R31/R30</f>
+      <c r="R35" s="20">
+        <f t="shared" si="5"/>
         <v>0.9094846676503765</v>
       </c>
-      <c r="S35" s="24">
-        <f>S31/S30</f>
+      <c r="S35" s="20">
+        <f t="shared" si="5"/>
         <v>0.89771198546684117</v>
       </c>
-      <c r="T35" s="24">
-        <f>T31/T30</f>
+      <c r="T35" s="20">
+        <f t="shared" si="5"/>
         <v>0.88056701317002328</v>
       </c>
-      <c r="U35" s="24">
-        <f>U31/U30</f>
+      <c r="U35" s="20">
+        <f t="shared" si="5"/>
         <v>0.86386313709934914</v>
       </c>
-      <c r="V35" s="24">
-        <f>V31/V30</f>
+      <c r="V35" s="20">
+        <f t="shared" si="5"/>
         <v>0.88010499198977876</v>
       </c>
-      <c r="W35" s="24">
-        <f>W31/W30</f>
+      <c r="W35" s="20">
+        <f t="shared" si="5"/>
         <v>0.87473879561523438</v>
       </c>
-      <c r="X35" s="24">
-        <f>X31/X30</f>
+      <c r="X35" s="20">
+        <f t="shared" si="5"/>
         <v>0.87864432011250604</v>
       </c>
-      <c r="Y35" s="24">
-        <f>Y31/Y30</f>
+      <c r="Y35" s="20">
+        <f t="shared" si="5"/>
         <v>0.90536053606602118</v>
       </c>
-      <c r="Z35" s="24">
-        <f>Z31/Z30</f>
+      <c r="Z35" s="20">
+        <f t="shared" si="5"/>
         <v>0.93880129072735241</v>
       </c>
-      <c r="AA35" s="24">
-        <f>AA31/AA30</f>
+      <c r="AA35" s="20">
+        <f t="shared" si="5"/>
         <v>0.94560551088886424</v>
       </c>
-      <c r="AB35" s="24">
-        <f>AB31/AB30</f>
+      <c r="AB35" s="20">
+        <f t="shared" si="5"/>
         <v>0.95851227403246153</v>
       </c>
-      <c r="AC35" s="25">
-        <f>AC31/AC30</f>
+      <c r="AC35" s="21">
+        <f t="shared" si="5"/>
         <v>0.91903424373742904</v>
       </c>
-      <c r="AD35" s="26">
+      <c r="AD35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AE35" s="26">
+      <c r="AE35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AF35" s="26">
+      <c r="AF35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AG35" s="26">
+      <c r="AG35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AH35" s="26">
+      <c r="AH35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AI35" s="26">
+      <c r="AI35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AJ35" s="26">
+      <c r="AJ35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AK35" s="26">
+      <c r="AK35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AL35" s="26">
+      <c r="AL35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AM35" s="26">
+      <c r="AM35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AN35" s="26">
+      <c r="AN35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AO35" s="26">
+      <c r="AO35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AP35" s="26">
+      <c r="AP35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AQ35" s="26">
+      <c r="AQ35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AR35" s="26">
+      <c r="AR35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AS35" s="26">
+      <c r="AS35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AT35" s="26">
+      <c r="AT35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AU35" s="26">
+      <c r="AU35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AV35" s="26">
+      <c r="AV35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AW35" s="26">
+      <c r="AW35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AX35" s="26">
+      <c r="AX35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AY35" s="26">
+      <c r="AY35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="AZ35" s="26">
+      <c r="AZ35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="BA35" s="26">
+      <c r="BA35" s="22">
         <v>0.91903400000000002</v>
       </c>
-      <c r="BB35" s="26">
+      <c r="BB35" s="22">
         <v>0.91903400000000002</v>
       </c>
       <c r="BC35" s="1"/>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="24">
-        <f>B31/B32</f>
+      <c r="B36" s="20">
+        <f t="shared" ref="B36:AC36" si="6">B31/B32</f>
         <v>0.85708791208791213</v>
       </c>
-      <c r="C36" s="24">
-        <f>C31/C32</f>
+      <c r="C36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0567375886524824</v>
       </c>
-      <c r="D36" s="24">
-        <f>D31/D32</f>
+      <c r="D36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0480450405405406</v>
       </c>
-      <c r="E36" s="24">
-        <f>E31/E32</f>
+      <c r="E36" s="20">
+        <f t="shared" si="6"/>
         <v>1.039187417012448</v>
       </c>
-      <c r="F36" s="24">
-        <f>F31/F32</f>
+      <c r="F36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0376522674418605</v>
       </c>
-      <c r="G36" s="24">
-        <f>G31/G32</f>
+      <c r="G36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0287384875690606</v>
       </c>
-      <c r="H36" s="24">
-        <f>H31/H32</f>
+      <c r="H36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0550479475703323</v>
       </c>
-      <c r="I36" s="24">
-        <f>I31/I32</f>
+      <c r="I36" s="20">
+        <f t="shared" si="6"/>
         <v>1.227501951219512</v>
       </c>
-      <c r="J36" s="24">
-        <f>J31/J32</f>
+      <c r="J36" s="20">
+        <f t="shared" si="6"/>
         <v>1.1967581198770492</v>
       </c>
-      <c r="K36" s="24">
-        <f>K31/K32</f>
+      <c r="K36" s="20">
+        <f t="shared" si="6"/>
         <v>1.1677240883458646</v>
       </c>
-      <c r="L36" s="24">
-        <f>L31/L32</f>
+      <c r="L36" s="20">
+        <f t="shared" si="6"/>
         <v>1.1418470244107743</v>
       </c>
-      <c r="M36" s="24">
-        <f>M31/M32</f>
+      <c r="M36" s="20">
+        <f t="shared" si="6"/>
         <v>1.1234469292237443</v>
       </c>
-      <c r="N36" s="24">
-        <f>N31/N32</f>
+      <c r="N36" s="20">
+        <f t="shared" si="6"/>
         <v>1.1228631502890174</v>
       </c>
-      <c r="O36" s="24">
-        <f>O31/O32</f>
+      <c r="O36" s="20">
+        <f t="shared" si="6"/>
         <v>1.1096152408477842</v>
       </c>
-      <c r="P36" s="24">
-        <f>P31/P32</f>
+      <c r="P36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0995846224188792</v>
       </c>
-      <c r="Q36" s="24">
-        <f>Q31/Q32</f>
+      <c r="Q36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0942277315585136</v>
       </c>
-      <c r="R36" s="24">
-        <f>R31/R32</f>
+      <c r="R36" s="20">
+        <f t="shared" si="6"/>
         <v>1.089738122028526</v>
       </c>
-      <c r="S36" s="24">
-        <f>S31/S32</f>
+      <c r="S36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0856652874432677</v>
       </c>
-      <c r="T36" s="24">
-        <f>T31/T32</f>
+      <c r="T36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0834585224529212</v>
       </c>
-      <c r="U36" s="24">
-        <f>U31/U32</f>
+      <c r="U36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0786013882461825</v>
       </c>
-      <c r="V36" s="24">
-        <f>V31/V32</f>
+      <c r="V36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0750753741349479</v>
       </c>
-      <c r="W36" s="24">
-        <f>W31/W32</f>
+      <c r="W36" s="20">
+        <f t="shared" si="6"/>
         <v>1.069465365704998</v>
       </c>
-      <c r="X36" s="24">
-        <f>X31/X32</f>
+      <c r="X36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0661084763370525</v>
       </c>
-      <c r="Y36" s="24">
-        <f>Y31/Y32</f>
+      <c r="Y36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0606144334175387</v>
       </c>
-      <c r="Z36" s="24">
-        <f>Z31/Z32</f>
+      <c r="Z36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0581981166525782</v>
       </c>
-      <c r="AA36" s="24">
-        <f>AA31/AA32</f>
+      <c r="AA36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0573175359007834</v>
       </c>
-      <c r="AB36" s="24">
-        <f>AB31/AB32</f>
+      <c r="AB36" s="20">
+        <f t="shared" si="6"/>
         <v>1.0617941291243655</v>
       </c>
-      <c r="AC36" s="25">
-        <f>AC31/AC32</f>
+      <c r="AC36" s="21">
+        <f t="shared" si="6"/>
         <v>1.0655171635514018</v>
       </c>
-      <c r="AD36" s="26">
+      <c r="AD36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AE36" s="26">
+      <c r="AE36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AF36" s="26">
+      <c r="AF36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AG36" s="26">
+      <c r="AG36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AH36" s="26">
+      <c r="AH36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AI36" s="26">
+      <c r="AI36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AJ36" s="26">
+      <c r="AJ36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AK36" s="26">
+      <c r="AK36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AL36" s="26">
+      <c r="AL36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AM36" s="26">
+      <c r="AM36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AN36" s="26">
+      <c r="AN36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AO36" s="26">
+      <c r="AO36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AP36" s="26">
+      <c r="AP36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AQ36" s="26">
+      <c r="AQ36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AR36" s="26">
+      <c r="AR36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AS36" s="26">
+      <c r="AS36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AT36" s="26">
+      <c r="AT36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AU36" s="26">
+      <c r="AU36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AV36" s="26">
+      <c r="AV36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AW36" s="26">
+      <c r="AW36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AX36" s="26">
+      <c r="AX36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AY36" s="26">
+      <c r="AY36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="AZ36" s="26">
+      <c r="AZ36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="BA36" s="26">
+      <c r="BA36" s="22">
         <v>1.065517</v>
       </c>
-      <c r="BB36" s="26">
+      <c r="BB36" s="22">
         <v>1.065517</v>
       </c>
       <c r="BC36" s="1"/>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9">
         <v>6420</v>
       </c>
-      <c r="AD37" s="13">
-        <f>AD30/AD36</f>
+      <c r="AD37" s="10">
+        <f t="shared" ref="AD37:AW37" si="7">AD30/AD36</f>
         <v>7396.9821129085685</v>
       </c>
-      <c r="AE37" s="13">
-        <f>AE30/AE36</f>
+      <c r="AE37" s="10">
+        <f t="shared" si="7"/>
         <v>7584.6844208022949</v>
       </c>
-      <c r="AF37" s="13">
-        <f>AF30/AF36</f>
+      <c r="AF37" s="10">
+        <f t="shared" si="7"/>
         <v>7853.6477503409142</v>
       </c>
-      <c r="AG37" s="13">
-        <f>AG30/AG36</f>
+      <c r="AG37" s="10">
+        <f t="shared" si="7"/>
         <v>8285.3630584964849</v>
       </c>
-      <c r="AH37" s="13">
-        <f>AH30/AH36</f>
+      <c r="AH37" s="10">
+        <f t="shared" si="7"/>
         <v>8469.3113202323384</v>
       </c>
-      <c r="AI37" s="13">
-        <f>AI30/AI36</f>
+      <c r="AI37" s="10">
+        <f t="shared" si="7"/>
         <v>8488.0815510217108</v>
       </c>
-      <c r="AJ37" s="13">
-        <f>AJ30/AJ36</f>
+      <c r="AJ37" s="10">
+        <f t="shared" si="7"/>
         <v>8506.8517818110831</v>
       </c>
-      <c r="AK37" s="13">
-        <f>AK30/AK36</f>
+      <c r="AK37" s="10">
+        <f t="shared" si="7"/>
         <v>9711.9005984888081</v>
       </c>
-      <c r="AL37" s="13">
-        <f>AL30/AL36</f>
+      <c r="AL37" s="10">
+        <f t="shared" si="7"/>
         <v>9775.7193831726763</v>
       </c>
-      <c r="AM37" s="13">
-        <f>AM30/AM36</f>
+      <c r="AM37" s="10">
+        <f t="shared" si="7"/>
         <v>9922.1271833297833</v>
       </c>
-      <c r="AN37" s="13">
-        <f>AN30/AN36</f>
+      <c r="AN37" s="10">
+        <f t="shared" si="7"/>
         <v>10128.599722012881</v>
       </c>
-      <c r="AO37" s="13">
-        <f>AO30/AO36</f>
+      <c r="AO37" s="10">
+        <f t="shared" si="7"/>
         <v>10335.072260695981</v>
       </c>
-      <c r="AP37" s="13">
-        <f>AP30/AP36</f>
+      <c r="AP37" s="10">
+        <f t="shared" si="7"/>
         <v>10541.54479937908</v>
       </c>
-      <c r="AQ37" s="13">
-        <f>AQ30/AQ36</f>
+      <c r="AQ37" s="10">
+        <f t="shared" si="7"/>
         <v>10748.01733806218</v>
       </c>
-      <c r="AR37" s="13">
-        <f>AR30/AR36</f>
+      <c r="AR37" s="10">
+        <f t="shared" si="7"/>
         <v>10954.48987674528</v>
       </c>
-      <c r="AS37" s="13">
-        <f>AS30/AS36</f>
+      <c r="AS37" s="10">
+        <f t="shared" si="7"/>
         <v>11160.962415428379</v>
       </c>
-      <c r="AT37" s="13">
-        <f>AT30/AT36</f>
+      <c r="AT37" s="10">
+        <f t="shared" si="7"/>
         <v>11374.943046427226</v>
       </c>
-      <c r="AU37" s="13">
-        <f>AU30/AU36</f>
+      <c r="AU37" s="10">
+        <f t="shared" si="7"/>
         <v>11401.221369532348</v>
       </c>
-      <c r="AV37" s="13">
-        <f>AV30/AV36</f>
+      <c r="AV37" s="10">
+        <f t="shared" si="7"/>
         <v>11401.221369532348</v>
       </c>
-      <c r="AW37" s="13">
-        <f>AW30/AW36</f>
+      <c r="AW37" s="10">
+        <f t="shared" si="7"/>
         <v>11401.221369532348</v>
       </c>
-      <c r="AX37" s="13">
+      <c r="AX37" s="10">
         <f>(AX26/AX36)+AW37</f>
         <v>11638.749255056464</v>
       </c>
-      <c r="AY37" s="13">
+      <c r="AY37" s="10">
         <f>(AY26/AY36)+AX37</f>
         <v>11876.27714058058</v>
       </c>
-      <c r="AZ37" s="13">
+      <c r="AZ37" s="10">
         <f>(AZ26/AZ36)+AY37</f>
         <v>12113.805026104696</v>
       </c>
-      <c r="BA37" s="13">
+      <c r="BA37" s="10">
         <f>(BA26/BA36)+AZ37</f>
         <v>12351.332911628811</v>
       </c>
-      <c r="BB37" s="13">
+      <c r="BB37" s="10">
         <f>(BB26/BB36)+BA37</f>
         <v>12405.710270225623</v>
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12">
+      <c r="B38" s="24"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9">
         <v>6840.62</v>
       </c>
-      <c r="AD38" s="13">
-        <f>AD30/AD35</f>
+      <c r="AD38" s="10">
+        <f t="shared" ref="AD38:AW38" si="8">AD30/AD35</f>
         <v>8575.9723688133399</v>
       </c>
-      <c r="AE38" s="13">
-        <f>AE30/AE35</f>
+      <c r="AE38" s="10">
+        <f t="shared" si="8"/>
         <v>8793.5921739565674</v>
       </c>
-      <c r="AF38" s="13">
-        <f>AF30/AF35</f>
+      <c r="AF38" s="10">
+        <f t="shared" si="8"/>
         <v>9105.4250332414249</v>
       </c>
-      <c r="AG38" s="13">
-        <f>AG30/AG35</f>
+      <c r="AG38" s="10">
+        <f t="shared" si="8"/>
         <v>9605.9505850708465</v>
       </c>
-      <c r="AH38" s="13">
-        <f>AH30/AH35</f>
+      <c r="AH38" s="10">
+        <f t="shared" si="8"/>
         <v>9819.2179941112081</v>
       </c>
-      <c r="AI38" s="13">
-        <f>AI30/AI35</f>
+      <c r="AI38" s="10">
+        <f t="shared" si="8"/>
         <v>9840.9799746255303</v>
       </c>
-      <c r="AJ38" s="13">
-        <f>AJ30/AJ35</f>
+      <c r="AJ38" s="10">
+        <f t="shared" si="8"/>
         <v>9862.7419551398543</v>
       </c>
-      <c r="AK38" s="13">
-        <f>AK30/AK35</f>
+      <c r="AK38" s="10">
+        <f t="shared" si="8"/>
         <v>11259.861104159367</v>
       </c>
-      <c r="AL38" s="13">
-        <f>AL30/AL35</f>
+      <c r="AL38" s="10">
+        <f t="shared" si="8"/>
         <v>11333.851837908065</v>
       </c>
-      <c r="AM38" s="13">
-        <f>AM30/AM35</f>
+      <c r="AM38" s="10">
+        <f t="shared" si="8"/>
         <v>11503.595285919781</v>
       </c>
-      <c r="AN38" s="13">
-        <f>AN30/AN35</f>
+      <c r="AN38" s="10">
+        <f t="shared" si="8"/>
         <v>11742.97707157733</v>
       </c>
-      <c r="AO38" s="13">
-        <f>AO30/AO35</f>
+      <c r="AO38" s="10">
+        <f t="shared" si="8"/>
         <v>11982.35885723488</v>
       </c>
-      <c r="AP38" s="13">
-        <f>AP30/AP35</f>
+      <c r="AP38" s="10">
+        <f t="shared" si="8"/>
         <v>12221.740642892428</v>
       </c>
-      <c r="AQ38" s="13">
-        <f>AQ30/AQ35</f>
+      <c r="AQ38" s="10">
+        <f t="shared" si="8"/>
         <v>12461.122428549977</v>
       </c>
-      <c r="AR38" s="13">
-        <f>AR30/AR35</f>
+      <c r="AR38" s="10">
+        <f t="shared" si="8"/>
         <v>12700.504214207527</v>
       </c>
-      <c r="AS38" s="13">
-        <f>AS30/AS35</f>
+      <c r="AS38" s="10">
+        <f t="shared" si="8"/>
         <v>12939.885999865075</v>
       </c>
-      <c r="AT38" s="13">
-        <f>AT30/AT35</f>
+      <c r="AT38" s="10">
+        <f t="shared" si="8"/>
         <v>13187.972577728355</v>
       </c>
-      <c r="AU38" s="13">
-        <f>AU30/AU35</f>
+      <c r="AU38" s="10">
+        <f t="shared" si="8"/>
         <v>13218.439350448405</v>
       </c>
-      <c r="AV38" s="13">
-        <f>AV30/AV35</f>
+      <c r="AV38" s="10">
+        <f t="shared" si="8"/>
         <v>13218.439350448405</v>
       </c>
-      <c r="AW38" s="13">
-        <f>AW30/AW35</f>
+      <c r="AW38" s="10">
+        <f t="shared" si="8"/>
         <v>13218.439350448405</v>
       </c>
-      <c r="AX38" s="12"/>
-      <c r="AY38" s="12"/>
-      <c r="AZ38" s="12"/>
-      <c r="BA38" s="12"/>
-      <c r="BB38" s="12"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="33">
         <v>12148.2</v>
       </c>
       <c r="C40" s="1"/>
@@ -10506,26 +9939,26 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
-      <c r="AY40" s="6"/>
+      <c r="AY40" s="4"/>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="34">
         <f>12148.2-12405.69</f>
         <v>-257.48999999999978</v>
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="34"/>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="31">
         <f>48/AC35</f>
         <v>52.228739382766406</v>
       </c>
@@ -10578,200 +10011,237 @@
       <c r="AW43" s="1"/>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="31">
         <f>B40/AC36</f>
         <v>11401.224133743348</v>
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K51" s="6"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K52" s="6"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="K54" s="6"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="K55" s="6"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="K56" s="6"/>
+      <c r="A56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="K57" s="6"/>
+      <c r="A57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="K58" s="6"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K59" s="6"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K60" s="6"/>
+      <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K61" s="6"/>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K62" s="6"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K63" s="6"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="K64" s="6"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K65" s="6"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K66" s="6"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K67" s="6"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K68" s="6"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K69" s="6"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K70" s="6"/>
+      <c r="K70" s="4"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K71" s="6"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K72" s="6"/>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K73" s="6"/>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K74" s="6"/>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K75" s="6"/>
+      <c r="K75" s="4"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K76" s="6"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="94" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B96" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+    </row>
+    <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="30"/>
+      <c r="N97" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B96:N97"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
